--- a/server/templates/excel/Ventilation.xlsx
+++ b/server/templates/excel/Ventilation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A7FF0F-604F-4516-9B40-7EDEED8AEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49936BB-1297-49D4-B4D9-8D6A7D707AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARTIFICIAL VENT" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>{observations}</t>
+  </si>
+  <si>
+    <t>{checklist_made_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
   </si>
 </sst>
 </file>
@@ -978,22 +984,22 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,8 +1348,8 @@
   </sheetPr>
   <dimension ref="A1:Z282"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.65" customHeight="1" zeroHeight="1"/>
@@ -1440,25 +1446,25 @@
       <c r="M4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A5" s="123" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="123" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="122" t="s">
+      <c r="A5" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="123"/>
     </row>
     <row r="6" spans="1:13" ht="36.75" customHeight="1" thickTop="1">
       <c r="A6" s="72"/>
@@ -2616,15 +2622,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2648,6 +2645,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2958,14 +2964,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10DA029-22BF-484B-93F6-0FB5B573AF55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2979,6 +2977,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
